--- a/data/trans_dic/P57_AC_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P57_AC_R-Edad-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.7492450195645344</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.4566080168883272</v>
+        <v>0.4566080168883274</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.6106054452840451</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.5442322665665223</v>
+        <v>0.5448024261629635</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.5187877052671993</v>
+        <v>0.5254286984689616</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.7014053772010115</v>
+        <v>0.7069787232093484</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.3820347255607053</v>
+        <v>0.3744249410381169</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.5613193861111009</v>
+        <v>0.5668674186343607</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.5801921815917747</v>
+        <v>0.5788085317526134</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.7044758172234387</v>
+        <v>0.7014039706715294</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.4077196906461034</v>
+        <v>0.405881048104113</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.5648876699780172</v>
+        <v>0.5693653230491343</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.5603074832969922</v>
+        <v>0.5632252476705595</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.7161462847664816</v>
+        <v>0.7188805598405746</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.4133705761290686</v>
+        <v>0.413915118648477</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.6308206149183071</v>
+        <v>0.6314535524294501</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.6171857280756952</v>
+        <v>0.6152843541605074</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.7897481288421417</v>
+        <v>0.7885235489075245</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.5388293746835406</v>
+        <v>0.5339330194086851</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.6550244071270676</v>
+        <v>0.6518786066605819</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.6666110816499415</v>
+        <v>0.6715361115662841</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.7893376156768671</v>
+        <v>0.7892267815493865</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.551378305867768</v>
+        <v>0.5472231630334374</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.6290907454909471</v>
+        <v>0.6327940024189064</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.6263139544284534</v>
+        <v>0.629944409107927</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.7774810898173087</v>
+        <v>0.7776304281871101</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.5231179170491671</v>
+        <v>0.5208024398857058</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.7727760157325642</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.6050683848403346</v>
+        <v>0.6050683848403345</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.6606159735093735</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.5930917859099419</v>
+        <v>0.5933733326331718</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.5941891259877604</v>
+        <v>0.5913324776268386</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.7372227072474895</v>
+        <v>0.7388942053229299</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.5429069936997444</v>
+        <v>0.5364852238418448</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.6241447121232582</v>
+        <v>0.6228949562897906</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.6585435448651682</v>
+        <v>0.6592696486772514</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.7426685532523531</v>
+        <v>0.7451065461217544</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.5086046164548652</v>
+        <v>0.5161267968676523</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.6177614383478006</v>
+        <v>0.6178769812733501</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.6323937926701552</v>
+        <v>0.6336387612664637</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.7517765005432692</v>
+        <v>0.7531599444556103</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.545987118268134</v>
+        <v>0.5438167855978282</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.6690377156865058</v>
+        <v>0.6681760296058432</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.6671064336337921</v>
+        <v>0.6654454229167255</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.8071867233634609</v>
+        <v>0.8069769906945141</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.6598666925977456</v>
+        <v>0.6549221043032807</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.7000953670728626</v>
+        <v>0.6976790514723784</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.7334256289105219</v>
+        <v>0.7329999518921001</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.8182052625059384</v>
+        <v>0.8151579291704221</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.6069792929660626</v>
+        <v>0.606659938229163</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.6712038788788518</v>
+        <v>0.6702702289057449</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.6855195472467216</v>
+        <v>0.6843439692457423</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.8004491788654048</v>
+        <v>0.8010499647758713</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.6195849485265906</v>
+        <v>0.6200843393715002</v>
       </c>
     </row>
     <row r="10">
@@ -969,7 +969,7 @@
         <v>0.788806117348552</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.6218570178094392</v>
+        <v>0.6218570178094394</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.6529834716141946</v>
+        <v>0.6467895649508064</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.6496167148645986</v>
+        <v>0.6481007533444688</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.7470822433470328</v>
+        <v>0.7474698881727261</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.5843672909115665</v>
+        <v>0.5832807391118217</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.6602590787666083</v>
+        <v>0.6674163878871918</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.7086442377733694</v>
+        <v>0.7032789187779098</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.7644635540789947</v>
+        <v>0.765169978418575</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.5817529381980089</v>
+        <v>0.5862512979004467</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.6694434017189703</v>
+        <v>0.6692459382932592</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.6892434290278037</v>
+        <v>0.6910375488718733</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.7626233416810733</v>
+        <v>0.766729402236711</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.5941490997810862</v>
+        <v>0.5933202516807287</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.7232892577552121</v>
+        <v>0.7242265227278784</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.7213099378347196</v>
+        <v>0.7210107803304761</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.8135896202323849</v>
+        <v>0.8118052388604569</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.6652067796797196</v>
+        <v>0.6717334861646507</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.7325720497201291</v>
+        <v>0.7347782509204037</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.7762860160325978</v>
+        <v>0.7739513076726574</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.8249991262745204</v>
+        <v>0.8251628706509654</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.6505078309964479</v>
+        <v>0.6497587069345832</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.720046032054072</v>
+        <v>0.7198786355767737</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.7381810094096144</v>
+        <v>0.7380406781267972</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.8098587978398055</v>
+        <v>0.8111457744412817</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.6498377651134204</v>
+        <v>0.646116930857509</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.8102973353420336</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.6188821275390205</v>
+        <v>0.6188821275390204</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.6984731884972269</v>
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.6707411172255853</v>
+        <v>0.6671176075351704</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.6428747190167113</v>
+        <v>0.6499626251100231</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.7731028226397051</v>
+        <v>0.7761274444585545</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.580314680250545</v>
+        <v>0.581311765518472</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.6569221801120196</v>
+        <v>0.660252333783357</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.751772153426015</v>
+        <v>0.7457488479175901</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.8071916808403043</v>
+        <v>0.8019374253581132</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.6154878512245062</v>
+        <v>0.6160735506014636</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.6759486396399028</v>
+        <v>0.6763568911487698</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.7061655324486312</v>
+        <v>0.7119001118798522</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.8022117557145388</v>
+        <v>0.8010698378302757</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.6066558592333329</v>
+        <v>0.6076361686521086</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.7514357763737397</v>
+        <v>0.7482089317933837</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.7245414105416713</v>
+        <v>0.7310153564271887</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.8411904486281464</v>
+        <v>0.8394015889628477</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.6561646435127166</v>
+        <v>0.6569535833707608</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.7370123107419859</v>
+        <v>0.7400989466383379</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.8223951197347098</v>
+        <v>0.8180637986425673</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.8623078605464861</v>
+        <v>0.8628772000290393</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.671646049369512</v>
+        <v>0.6741752167775386</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.7338028737681361</v>
+        <v>0.7339931500412765</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.7636171305728355</v>
+        <v>0.7622445779110392</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.8467382436446743</v>
+        <v>0.8445983402137863</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.6533233493219114</v>
+        <v>0.6543621563706856</v>
       </c>
     </row>
     <row r="16">
@@ -1229,7 +1229,7 @@
         <v>0.8390367921408297</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.7181593350277057</v>
+        <v>0.7181593350277056</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.7361340241451683</v>
@@ -1241,7 +1241,7 @@
         <v>0.8261747407698157</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.7020404918663699</v>
+        <v>0.70204049186637</v>
       </c>
     </row>
     <row r="17">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.6542633195069241</v>
+        <v>0.6566458646582397</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.5895082354456348</v>
+        <v>0.5924006686293823</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.7730103292799698</v>
+        <v>0.7749181166082879</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.6454268021038423</v>
+        <v>0.6506364992906269</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.7222811984504856</v>
+        <v>0.7248921581981098</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.6916188784850907</v>
+        <v>0.6891737882145348</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.8032269714062724</v>
+        <v>0.8021441671157712</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.6906071664367855</v>
+        <v>0.6904656344318078</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.7008632039644836</v>
+        <v>0.703598706020805</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.6604745500965206</v>
+        <v>0.6541397976217788</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.7989550884855068</v>
+        <v>0.7976720125204085</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.6796651849431941</v>
+        <v>0.6789502334297161</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.7462234463023316</v>
+        <v>0.7471181109176793</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.6899328314399654</v>
+        <v>0.693364326388713</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.849786348378993</v>
+        <v>0.8494028545585681</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.7213642348050973</v>
+        <v>0.7274535271071959</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.8085819822987257</v>
+        <v>0.8102755846246982</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.7805601697890177</v>
+        <v>0.7767427591382621</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.8727624459988731</v>
+        <v>0.8713589781479288</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.7463045864077614</v>
+        <v>0.7478821851947656</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.7662509145119187</v>
+        <v>0.7651378513281821</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.7224182801485614</v>
+        <v>0.7215743768449334</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.8501825486867831</v>
+        <v>0.8516486245945619</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.7250496659822991</v>
+        <v>0.7248125192918178</v>
       </c>
     </row>
     <row r="19">
@@ -1377,7 +1377,7 @@
         <v>0.8380411774934967</v>
       </c>
       <c r="N19" s="5" t="n">
-        <v>0.6621385805918468</v>
+        <v>0.6621385805918467</v>
       </c>
     </row>
     <row r="20">
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.7210691825093273</v>
+        <v>0.7281698069615258</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.6749543463197393</v>
+        <v>0.6831856337147598</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.7313276838666325</v>
+        <v>0.7301351843463397</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.6196656982085034</v>
+        <v>0.625551850597257</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.7333776778355787</v>
+        <v>0.7307366255083415</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.7158812895690436</v>
+        <v>0.7192961351511296</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.8496489879604199</v>
+        <v>0.8522192240727543</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.6259957162464219</v>
+        <v>0.6295473826568113</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.7418186934580497</v>
+        <v>0.7394693605160692</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.715328199550514</v>
+        <v>0.7162881010532978</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.8065028403847154</v>
+        <v>0.8099465162252956</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.635122783558743</v>
+        <v>0.6363931704721559</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.8166760709097354</v>
+        <v>0.8214978362610252</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.7859207801025042</v>
+        <v>0.7867972585404321</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.8231528055931945</v>
+        <v>0.8260638895925204</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.7025709083284117</v>
+        <v>0.7049370690748132</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.8152553770986886</v>
+        <v>0.8168018264762509</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.808166202376316</v>
+        <v>0.8062748700628822</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.9161788389521816</v>
+        <v>0.9163581173840012</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.6920269693935542</v>
+        <v>0.6927059893324564</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.8053246819931619</v>
+        <v>0.804220763694602</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.7858445273214389</v>
+        <v>0.7851397471709678</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.8668339677930097</v>
+        <v>0.8641509337443417</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.6860720176825867</v>
+        <v>0.686453768500551</v>
       </c>
     </row>
     <row r="22">
@@ -1489,7 +1489,7 @@
         <v>0.8435982284139968</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.7122638155154173</v>
+        <v>0.7122638155154174</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>0.8153979041325805</v>
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.7346841567669665</v>
+        <v>0.7318122968795797</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.6912997947617815</v>
+        <v>0.6951487500504069</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.7988761827855463</v>
+        <v>0.7998237854395663</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.6686977317938813</v>
+        <v>0.6691556268858534</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.7705221417032527</v>
+        <v>0.7702078974953235</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.7224865364707949</v>
+        <v>0.7213777969418165</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.8342541238388843</v>
+        <v>0.8280323330383108</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.715786691471157</v>
+        <v>0.7108863113101233</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.7693165907488236</v>
+        <v>0.7758125762674155</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.7243967900513567</v>
+        <v>0.7272638910571139</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.8313413879090298</v>
+        <v>0.8343967632753369</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.7056730352736862</v>
+        <v>0.7062844834106328</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.8411801347275258</v>
+        <v>0.8440010336709087</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.8066732603980077</v>
+        <v>0.8063911729229688</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.8839849744824738</v>
+        <v>0.8810277616509772</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.7573719018537859</v>
+        <v>0.7529634497895414</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.8546170417631176</v>
+        <v>0.8579052790594031</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.8159245847284806</v>
+        <v>0.8103899573614826</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.9084410314297601</v>
+        <v>0.9056974386538822</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.7758967583511304</v>
+        <v>0.7741358257190971</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.8394387178067843</v>
+        <v>0.8403431772003241</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.7955396190548056</v>
+        <v>0.7976827455814238</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.8872304778801393</v>
+        <v>0.8883394354286235</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.7562743984786302</v>
+        <v>0.7575105810503032</v>
       </c>
     </row>
     <row r="25">
@@ -1660,40 +1660,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.6636245870597266</v>
+        <v>0.6646153448151532</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.6469209314217675</v>
+        <v>0.6473233637953443</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.7769545681203515</v>
+        <v>0.7760277738373536</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.6069750660154467</v>
+        <v>0.6064186695381758</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.6919228404733847</v>
+        <v>0.6936585122537485</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.7172201763719905</v>
+        <v>0.716429973258249</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.8087303392100396</v>
+        <v>0.8072113083217991</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.6246444607625776</v>
+        <v>0.6240067219314426</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.6817929174416216</v>
+        <v>0.6824295620488862</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.6868419813374518</v>
+        <v>0.6867985059817573</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.7967682503774239</v>
+        <v>0.7964385587286492</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.6201313511070952</v>
+        <v>0.6199207425535092</v>
       </c>
     </row>
     <row r="27">
@@ -1704,40 +1704,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.6981465982953924</v>
+        <v>0.6967266276633581</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.6804059993119072</v>
+        <v>0.6807293653718098</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.8046621778443624</v>
+        <v>0.8045098409582538</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.6425681208613346</v>
+        <v>0.6436184362420539</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.7232654410224321</v>
+        <v>0.7230161348038332</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.7481793879751446</v>
+        <v>0.7473851490669549</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.8345687847216432</v>
+        <v>0.8344963250272823</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.651980102528775</v>
+        <v>0.6536498487553185</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.7048380959025032</v>
+        <v>0.7055946611859762</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.7102753815724352</v>
+        <v>0.7095227480948914</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.8167482276643768</v>
+        <v>0.8154826930405072</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.6436070054781564</v>
+        <v>0.6436609666527274</v>
       </c>
     </row>
     <row r="28">
@@ -2011,40 +2011,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>268886</v>
+        <v>269167</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>233562</v>
+        <v>236552</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>294214</v>
+        <v>296551</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>154070</v>
+        <v>151001</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>262411</v>
+        <v>265004</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>248477</v>
+        <v>247885</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>278122</v>
+        <v>276909</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>144584</v>
+        <v>143932</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>543169</v>
+        <v>547475</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>492215</v>
+        <v>494778</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>583126</v>
+        <v>585353</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>313295</v>
+        <v>313708</v>
       </c>
     </row>
     <row r="7">
@@ -2055,40 +2055,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>311666</v>
+        <v>311978</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>277861</v>
+        <v>277005</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>331270</v>
+        <v>330756</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>217303</v>
+        <v>215328</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>306217</v>
+        <v>304746</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>285488</v>
+        <v>287597</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>311625</v>
+        <v>311581</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>195528</v>
+        <v>194054</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>604904</v>
+        <v>608465</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>550200</v>
+        <v>553389</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>633069</v>
+        <v>633190</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>396473</v>
+        <v>394718</v>
       </c>
     </row>
     <row r="8">
@@ -2191,40 +2191,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>436212</v>
+        <v>436420</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>405621</v>
+        <v>403671</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>428590</v>
+        <v>429562</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>258109</v>
+        <v>255056</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>389680</v>
+        <v>388900</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>401879</v>
+        <v>402323</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>416020</v>
+        <v>417386</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>252440</v>
+        <v>256174</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>840052</v>
+        <v>840209</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>817623</v>
+        <v>819233</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>858173</v>
+        <v>859752</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>530568</v>
+        <v>528459</v>
       </c>
     </row>
     <row r="11">
@@ -2235,40 +2235,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>492070</v>
+        <v>491436</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>455398</v>
+        <v>454264</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>469264</v>
+        <v>469143</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>313714</v>
+        <v>311363</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>437100</v>
+        <v>435591</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>447577</v>
+        <v>447317</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>458333</v>
+        <v>456626</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>301267</v>
+        <v>301109</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>912725</v>
+        <v>911455</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>886310</v>
+        <v>884790</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>913734</v>
+        <v>914420</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>602088</v>
+        <v>602573</v>
       </c>
     </row>
     <row r="12">
@@ -2371,40 +2371,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>416331</v>
+        <v>412382</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>440464</v>
+        <v>439436</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>499224</v>
+        <v>499483</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>358850</v>
+        <v>358183</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>454763</v>
+        <v>459692</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>500835</v>
+        <v>497043</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>502672</v>
+        <v>503137</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>360602</v>
+        <v>363390</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>887914</v>
+        <v>887652</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>954455</v>
+        <v>956940</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>1011071</v>
+        <v>1016515</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>733143</v>
+        <v>732120</v>
       </c>
     </row>
     <row r="15">
@@ -2415,40 +2415,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>461157</v>
+        <v>461755</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>489074</v>
+        <v>488871</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>543666</v>
+        <v>542473</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>408492</v>
+        <v>412500</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>504569</v>
+        <v>506089</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>548641</v>
+        <v>546991</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>542477</v>
+        <v>542585</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>403220</v>
+        <v>402756</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>955031</v>
+        <v>954809</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>1022223</v>
+        <v>1022029</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>1073695</v>
+        <v>1075401</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>801860</v>
+        <v>797268</v>
       </c>
     </row>
     <row r="16">
@@ -2551,40 +2551,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>347174</v>
+        <v>345298</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>392487</v>
+        <v>396815</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>496109</v>
+        <v>498050</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>401288</v>
+        <v>401978</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>338737</v>
+        <v>340454</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>462507</v>
+        <v>458801</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>519265</v>
+        <v>515885</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>447700</v>
+        <v>448126</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>698416</v>
+        <v>698838</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>865576</v>
+        <v>872605</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>1030849</v>
+        <v>1029382</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>860779</v>
+        <v>862170</v>
       </c>
     </row>
     <row r="19">
@@ -2595,40 +2595,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>388941</v>
+        <v>387271</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>442346</v>
+        <v>446299</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>539801</v>
+        <v>538653</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>453739</v>
+        <v>454284</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>380035</v>
+        <v>381626</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>505956</v>
+        <v>503291</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>554721</v>
+        <v>555087</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>488549</v>
+        <v>490389</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>758194</v>
+        <v>758390</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>935997</v>
+        <v>934314</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>1088066</v>
+        <v>1085316</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>926995</v>
+        <v>928469</v>
       </c>
     </row>
     <row r="20">
@@ -2731,40 +2731,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>253010</v>
+        <v>253932</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>250639</v>
+        <v>251869</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>368556</v>
+        <v>369465</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>391594</v>
+        <v>394755</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>291791</v>
+        <v>292846</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>308988</v>
+        <v>307896</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>395426</v>
+        <v>394893</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>414543</v>
+        <v>414458</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>554170</v>
+        <v>556333</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>575886</v>
+        <v>570362</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>774249</v>
+        <v>773006</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>820343</v>
+        <v>819480</v>
       </c>
     </row>
     <row r="23">
@@ -2775,40 +2775,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>288572</v>
+        <v>288918</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>293337</v>
+        <v>294796</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>405161</v>
+        <v>404978</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>437667</v>
+        <v>441361</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>326656</v>
+        <v>327340</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>348724</v>
+        <v>347018</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>429658</v>
+        <v>428967</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>447976</v>
+        <v>448923</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>605872</v>
+        <v>604991</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>629896</v>
+        <v>629160</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>823892</v>
+        <v>825313</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>875121</v>
+        <v>874835</v>
       </c>
     </row>
     <row r="24">
@@ -2911,40 +2911,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>210973</v>
+        <v>213050</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>207076</v>
+        <v>209601</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>243730</v>
+        <v>243333</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>249639</v>
+        <v>252010</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>251500</v>
+        <v>250594</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>249446</v>
+        <v>250636</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>318344</v>
+        <v>319307</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>268748</v>
+        <v>270273</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>471438</v>
+        <v>469945</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>468715</v>
+        <v>469344</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>570962</v>
+        <v>573400</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>528532</v>
+        <v>529589</v>
       </c>
     </row>
     <row r="27">
@@ -2955,40 +2955,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>238946</v>
+        <v>240356</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>241120</v>
+        <v>241389</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>274333</v>
+        <v>275303</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>283038</v>
+        <v>283991</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>279579</v>
+        <v>280109</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>281602</v>
+        <v>280943</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>343271</v>
+        <v>343338</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>297096</v>
+        <v>297388</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>511798</v>
+        <v>511096</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>514921</v>
+        <v>514459</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>613673</v>
+        <v>611774</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>570931</v>
+        <v>571248</v>
       </c>
     </row>
     <row r="28">
@@ -3091,40 +3091,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>154198</v>
+        <v>153595</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>169798</v>
+        <v>170744</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>204619</v>
+        <v>204861</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>202270</v>
+        <v>202408</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>257284</v>
+        <v>257179</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>276373</v>
+        <v>275949</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>332782</v>
+        <v>330300</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>325354</v>
+        <v>323126</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>418347</v>
+        <v>421880</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>455032</v>
+        <v>456833</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>544554</v>
+        <v>546556</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>534211</v>
+        <v>534674</v>
       </c>
     </row>
     <row r="31">
@@ -3135,40 +3135,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>176549</v>
+        <v>177141</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>198137</v>
+        <v>198067</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>226418</v>
+        <v>225660</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>229092</v>
+        <v>227759</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>285363</v>
+        <v>286461</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>312116</v>
+        <v>309999</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>362375</v>
+        <v>361281</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>352676</v>
+        <v>351876</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>456479</v>
+        <v>456971</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>499721</v>
+        <v>501067</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>581163</v>
+        <v>581890</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>572518</v>
+        <v>573454</v>
       </c>
     </row>
     <row r="32">
@@ -3271,40 +3271,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>2172647</v>
+        <v>2175890</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>2198882</v>
+        <v>2200250</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>2623735</v>
+        <v>2620605</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>2122202</v>
+        <v>2120256</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>2336669</v>
+        <v>2342531</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>2537691</v>
+        <v>2534895</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>2848089</v>
+        <v>2842740</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>2300136</v>
+        <v>2297788</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>4534588</v>
+        <v>4538822</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>4764780</v>
+        <v>4764479</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>5496609</v>
+        <v>5494334</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>4451718</v>
+        <v>4450206</v>
       </c>
     </row>
     <row r="35">
@@ -3315,40 +3315,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>2285668</v>
+        <v>2281020</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>2312698</v>
+        <v>2313797</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>2717302</v>
+        <v>2716788</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>2246648</v>
+        <v>2250320</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>2442515</v>
+        <v>2441673</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>2647232</v>
+        <v>2644422</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>2939084</v>
+        <v>2938829</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>2400795</v>
+        <v>2406943</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>4687861</v>
+        <v>4692892</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>4927343</v>
+        <v>4922122</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>5634443</v>
+        <v>5625713</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>4620242</v>
+        <v>4620630</v>
       </c>
     </row>
     <row r="36">
